--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,96 +43,102 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>lowest</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -142,15 +148,12 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -160,49 +163,64 @@
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
@@ -211,34 +229,43 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
@@ -247,7 +274,7 @@
     <t>ready</t>
   </si>
   <si>
-    <t>care</t>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
@@ -256,25 +283,22 @@
     <t>important</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>give</t>
+    <t>shop</t>
   </si>
   <si>
     <t>corona</t>
@@ -635,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7941176470588235</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,16 +899,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.76</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.8076923076923077</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,16 +1099,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,31 +1196,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
+        <v>102</v>
+      </c>
+      <c r="M12">
+        <v>102</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>26</v>
-      </c>
-      <c r="M12">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.7735849056603774</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.64</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,16 +1349,16 @@
         <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5769230769230769</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,16 +1449,16 @@
         <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.723404255319149</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1454,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5251937984496124</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5098039215686274</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.75625</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5079365079365079</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C20">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4765100671140939</v>
+        <v>0.5096899224806202</v>
       </c>
       <c r="C21">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="D21">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.6352941176470588</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4193548387096774</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
         <v>17</v>
@@ -1746,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4102564102564102</v>
+        <v>0.44</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3866666666666667</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.6071428571428571</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1878,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3783783783783784</v>
+        <v>0.425</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,16 +1899,16 @@
         <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3392857142857143</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,31 +1946,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.5884353741496599</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L27">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,38 +2028,38 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3272727272727273</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L29">
         <v>18</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>18</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>37</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L29">
-        <v>38</v>
-      </c>
-      <c r="M29">
-        <v>38</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2078,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3272727272727273</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.5815899581589958</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L30">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="M30">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2128,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.54</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2178,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2597402597402597</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.5285714285714286</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,13 +2228,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.257936507936508</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,13 +2278,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2272,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2328,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1501340482573726</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2322,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2346,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2354,13 +2378,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.05666666666666666</v>
+        <v>0.175</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2372,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2396,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2404,13 +2428,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01205857019810508</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2422,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1147</v>
+        <v>325</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37">
-        <v>0.3939393939393939</v>
+        <v>0.58</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2454,37 +2478,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009342783505154639</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3075</v>
+        <v>281</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K38">
-        <v>0.3287671232876712</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2496,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2504,63 +2528,87 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.007012622720897616</v>
+        <v>0.007483629560336763</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39">
+        <v>0.24</v>
+      </c>
+      <c r="F39">
+        <v>0.76</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2122</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L39">
+        <v>48</v>
+      </c>
+      <c r="M39">
+        <v>48</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.007416962270235408</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>29</v>
+      </c>
+      <c r="E40">
         <v>0.21</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.79</v>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2124</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.3137254901960784</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3078</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>0.2564102564102564</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2572,21 +2620,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41">
-        <v>0.234375</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2598,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42">
-        <v>0.2280701754385965</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2624,21 +2672,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>0.2131147540983606</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2650,33 +2698,215 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>0.00533082470994042</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N44">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>3172</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L45">
+        <v>28</v>
+      </c>
+      <c r="M45">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46">
+        <v>0.328125</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L47">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <v>18</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49">
+        <v>0.2280701754385965</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51">
+        <v>0.005640864932623002</v>
+      </c>
+      <c r="L51">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>0.64</v>
+      </c>
+      <c r="O51">
+        <v>0.36</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3173</v>
       </c>
     </row>
   </sheetData>
